--- a/mylibrary/colorprint/doc/color bit.xlsx
+++ b/mylibrary/colorprint/doc/color bit.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\王子夏\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding_Life\C&amp;C++\mylibrary\colorprint\v1.0\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="const" sheetId="2" r:id="rId1"/>
+    <sheet name="functions" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#define</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FONT_BLACK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -532,9 +528,69 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>清除字体颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（控制格式）清除下划线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（控制格式）清除高亮(加粗)效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（控制格式）清除反色效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（控制格式）清除隐藏效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除背景颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除控制格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（控制格式）清除闪烁效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（用于输出流）关闭格式，包括之前打开的所有格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（用于输出流）打印一个PrintType的变量，会应用已有格式，但在打印完毕以后会自动关闭所有格式，包括其他已开启的所有格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（用于输出流）打开格式，此后的所有输出（所有类型）都会应用此格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>ColorPrint&lt;PrintType&gt; &amp; 
-print(</t>
+printOne(</t>
     </r>
     <r>
       <rPr>
@@ -556,42 +612,6 @@
       </rPr>
       <t xml:space="preserve"> PrintType pt)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除字体颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（控制格式）清除下划线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（控制格式）清除高亮(加粗)效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（控制格式）清除反色效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（控制格式）清除隐藏效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除背景颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除控制格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -647,12 +667,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>类型/宏定义</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Color</t>
+      <t>类型/常量定义</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -708,24 +724,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>类型/宏定义</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（控制格式）清除闪烁效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（用于输出流）关闭格式，包括之前打开的所有格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（用于输出流）打印一个PrintType的变量，会应用已有格式，但在打印完毕以后会自动关闭所有格式，包括其他已开启的所有格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（用于输出流）打开格式，此后的所有输出（所有类型）都会应用此格式</t>
+      <t>类型/常量定义</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1223,136 +1223,136 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1637,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="A1:G33"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection sqref="A1:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1655,10 +1655,10 @@
       <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47"/>
+      <c r="C1" s="43"/>
       <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1666,385 +1666,385 @@
         <v>19</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="17">
         <v>0</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="17">
         <v>1</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="41"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17">
+        <v>2</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G3" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="41"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="17">
+        <v>2</v>
+      </c>
+      <c r="E4" s="17">
+        <v>4</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="41"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="17">
+        <v>3</v>
+      </c>
+      <c r="E5" s="17">
+        <v>8</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="41"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="17">
+        <v>4</v>
+      </c>
+      <c r="E6" s="17">
+        <v>16</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="17">
+        <v>5</v>
+      </c>
+      <c r="E7" s="17">
+        <v>32</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="41"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="17">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="25">
-        <v>1</v>
-      </c>
-      <c r="E3" s="25">
-        <v>2</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="26" t="s">
+      <c r="E8" s="17">
+        <v>64</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="41"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="17">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="25">
-        <v>2</v>
-      </c>
-      <c r="E4" s="25">
+      <c r="E9" s="17">
+        <v>128</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="41"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="26" t="s">
+      <c r="D10" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="25">
-        <v>3</v>
-      </c>
-      <c r="E5" s="25">
+      <c r="E10" s="13">
+        <v>256</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="41"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="13">
+        <v>9</v>
+      </c>
+      <c r="E11" s="13">
+        <v>512</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="41"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="13">
+        <v>10</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1024</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="26" t="s">
+    </row>
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="41"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="13">
+        <v>11</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2048</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="25">
-        <v>4</v>
-      </c>
-      <c r="E6" s="25">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="41"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="13">
+        <v>12</v>
+      </c>
+      <c r="E14" s="13">
+        <v>4096</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="41"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="13">
+        <v>13</v>
+      </c>
+      <c r="E15" s="13">
+        <v>8192</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="41"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="13">
+        <v>14</v>
+      </c>
+      <c r="E16" s="13">
+        <v>16384</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="41"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="13">
+        <v>15</v>
+      </c>
+      <c r="E17" s="13">
+        <v>32768</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="41"/>
+      <c r="B18" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="15">
         <v>16</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="25">
-        <v>5</v>
-      </c>
-      <c r="E7" s="25">
-        <v>32</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="25">
-        <v>6</v>
-      </c>
-      <c r="E8" s="25">
-        <v>64</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="25">
-        <v>7</v>
-      </c>
-      <c r="E9" s="25">
-        <v>128</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="16">
-        <v>8</v>
-      </c>
-      <c r="E10" s="16">
-        <v>256</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="16">
-        <v>9</v>
-      </c>
-      <c r="E11" s="16">
-        <v>512</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="16">
-        <v>10</v>
-      </c>
-      <c r="E12" s="16">
-        <v>1024</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="16">
-        <v>11</v>
-      </c>
-      <c r="E13" s="16">
-        <v>2048</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="16">
-        <v>12</v>
-      </c>
-      <c r="E14" s="16">
-        <v>4096</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="16">
-        <v>13</v>
-      </c>
-      <c r="E15" s="16">
-        <v>8192</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="16">
+      <c r="E18" s="15">
+        <v>65536</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="16">
-        <v>16384</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="16">
-        <v>15</v>
-      </c>
-      <c r="E17" s="16">
-        <v>32768</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="19">
-        <v>16</v>
-      </c>
-      <c r="E18" s="19">
-        <v>65536</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="49"/>
       <c r="C19" s="50"/>
-      <c r="D19" s="19">
+      <c r="D19" s="15">
         <v>17</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="15">
         <v>131072</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="20" t="s">
+      <c r="F19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="49"/>
       <c r="C20" s="50"/>
-      <c r="D20" s="19">
+      <c r="D20" s="15">
         <v>18</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="15">
         <v>262144</v>
       </c>
-      <c r="F20" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="20" t="s">
+      <c r="F20" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="49"/>
       <c r="C21" s="50"/>
-      <c r="D21" s="19">
+      <c r="D21" s="15">
         <v>19</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="15">
         <v>524288</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="20" t="s">
+      <c r="F21" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="51"/>
       <c r="C22" s="52"/>
-      <c r="D22" s="19">
+      <c r="D22" s="15">
         <v>20</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="15">
         <v>1048576</v>
       </c>
-      <c r="F22" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="20" t="s">
+      <c r="F22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="43"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5">
         <v>21</v>
@@ -2054,8 +2054,8 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
-      <c r="B24" s="44"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5">
         <v>22</v>
@@ -2065,8 +2065,8 @@
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5">
         <v>23</v>
@@ -2076,8 +2076,8 @@
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5">
         <v>24</v>
@@ -2087,8 +2087,8 @@
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
-      <c r="B27" s="44"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5">
         <v>25</v>
@@ -2098,8 +2098,8 @@
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="22"/>
-      <c r="B28" s="44"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5">
         <v>26</v>
@@ -2109,8 +2109,8 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="22"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5">
         <v>27</v>
@@ -2120,8 +2120,8 @@
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="22"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5">
         <v>28</v>
@@ -2131,8 +2131,8 @@
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="22"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5">
         <v>29</v>
@@ -2142,8 +2142,8 @@
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="22"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5">
         <v>30</v>
@@ -2153,8 +2153,8 @@
       <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="45"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="7"/>
       <c r="D33" s="8">
         <v>31</v>
@@ -2170,13 +2170,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A23:A33"/>
+    <mergeCell ref="A2:A22"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B18:C22"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="C10:C17"/>
-    <mergeCell ref="A23:A33"/>
-    <mergeCell ref="A2:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2188,189 +2188,189 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="B2:C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="62.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="32" t="s">
+    </row>
+    <row r="13" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>77</v>
-      </c>
-    </row>
     <row r="19" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
     </row>
     <row r="20" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
     </row>
     <row r="22" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
     </row>
     <row r="23" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
     </row>
     <row r="24" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
     </row>
     <row r="25" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
     </row>
     <row r="26" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
     </row>
     <row r="27" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
